--- a/Proyecto 5 – Automatización de Reportes Semanales/datos_ventas_junio2025.xlsx
+++ b/Proyecto 5 – Automatización de Reportes Semanales/datos_ventas_junio2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\equipo\Desktop\Proyectos\Análisis de datos\Proyecto 5 Automatizar un informe semanal con Excel, Power BI y Power Automate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\equipo\Desktop\Proyectos\Análisis de datos\Proyecto_5 Automatizar un informe semanal con Excel, Power BI y Power Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FBFEE1-AF30-4EAE-8E70-590F24D049AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F7DA14-FFD1-41EB-B7CF-4EF5063B2CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="39">
   <si>
     <t>Fecha</t>
   </si>
@@ -134,6 +134,11 @@
   </si>
   <si>
     <t>Producto Y</t>
+  </si>
+  <si>
+    <t>Fecha del informe: 03/07/2025
+Autor: Mateo Fernández
+Rol: Analista de Datos Junior</t>
   </si>
 </sst>
 </file>
@@ -192,10 +197,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,6 +1578,11 @@
         <v>200</v>
       </c>
     </row>
+    <row r="56" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
